--- a/3block_HIGHT_Register.xlsx
+++ b/3block_HIGHT_Register.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Desktop\겨울학술\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52261459-276C-49BE-8D45-DBF2E12C3940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7FE3CF-D941-4DD1-9612-8402137474F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="2175" windowWidth="28800" windowHeight="15345" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="origin" sheetId="3" r:id="rId1"/>
+    <sheet name="LM" sheetId="1" r:id="rId2"/>
+    <sheet name="DI" sheetId="4" r:id="rId3"/>
+    <sheet name="LMDI" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="75">
   <si>
     <t>t0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +283,50 @@
   </si>
   <si>
     <t>라운드2(짝수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,16 +699,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF72E94-D5D6-42D2-AF03-F029C6C9F8D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3CDF49-4FFA-4DD0-BC94-50DDC09A170F}">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>28</v>
       </c>
@@ -696,7 +743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -733,27 +780,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -773,7 +814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -790,7 +831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -807,12 +848,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -826,7 +867,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -861,7 +902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -896,7 +937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -931,7 +972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -966,7 +1007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1001,7 +1042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1106,7 +1147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1170,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -1175,7 +1216,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1198,7 +1239,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1212,7 +1253,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -1250,7 +1291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -1326,7 +1367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -1364,7 +1405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -1413,7 +1454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -1426,11 +1467,17 @@
       <c r="G29" t="s">
         <v>58</v>
       </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
       <c r="J29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -1441,7 +1488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1459,4 +1506,3892 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF72E94-D5D6-42D2-AF03-F029C6C9F8D3}">
+  <dimension ref="B1:M31"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488BB076-65DB-4B3A-B9C3-8D51A36FA106}">
+  <dimension ref="B1:Y40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25">
+        <v>6</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q35" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>7</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q36" t="s">
+        <v>68</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>7</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>7</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F31B76D-C6BF-4EBC-8A6B-9840ED150A42}">
+  <dimension ref="B1:Y40"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25">
+        <v>6</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q35" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>7</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q36" t="s">
+        <v>68</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>7</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>7</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="Q39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="17:25" x14ac:dyDescent="0.4">
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3block_HIGHT_Register.xlsx
+++ b/3block_HIGHT_Register.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Desktop\겨울학술\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52261459-276C-49BE-8D45-DBF2E12C3940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B8662-12C7-40B8-845E-E9955E8B33A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="2175" windowWidth="28800" windowHeight="15345" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="32310" windowHeight="15285" activeTab="5" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="origin" sheetId="3" r:id="rId1"/>
+    <sheet name="LM" sheetId="1" r:id="rId2"/>
+    <sheet name="DI" sheetId="4" r:id="rId3"/>
+    <sheet name="LMDI" sheetId="2" r:id="rId4"/>
+    <sheet name="LMDIPL" sheetId="5" r:id="rId5"/>
+    <sheet name="Dec" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="80">
   <si>
     <t>t0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +285,70 @@
   </si>
   <si>
     <t>라운드2(짝수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT load1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT load2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT load3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT load4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR비트마스크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,11 +721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF72E94-D5D6-42D2-AF03-F029C6C9F8D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3CDF49-4FFA-4DD0-BC94-50DDC09A170F}">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -738,16 +807,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
         <v>54</v>
@@ -1426,8 +1489,14 @@
       <c r="G29" t="s">
         <v>58</v>
       </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
       <c r="J29" t="s">
         <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -1459,4 +1528,7069 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF72E94-D5D6-42D2-AF03-F029C6C9F8D3}">
+  <dimension ref="B1:M31"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488BB076-65DB-4B3A-B9C3-8D51A36FA106}">
+  <dimension ref="C1:Z40"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>7</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="R9" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>7</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>7</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" t="s">
+        <v>67</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" t="s">
+        <v>69</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <v>6</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" t="s">
+        <v>70</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="R22" t="s">
+        <v>64</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>5</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>6</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>7</v>
+      </c>
+      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <v>5</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" t="s">
+        <v>67</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>7</v>
+      </c>
+      <c r="X26">
+        <v>6</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
+      </c>
+      <c r="Z26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" t="s">
+        <v>69</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>6</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" t="s">
+        <v>70</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>7</v>
+      </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="R29" t="s">
+        <v>71</v>
+      </c>
+      <c r="S29">
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>5</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="R32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S32">
+        <v>7</v>
+      </c>
+      <c r="T32">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <v>5</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R33" t="s">
+        <v>65</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>7</v>
+      </c>
+      <c r="U33">
+        <v>6</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R34" t="s">
+        <v>66</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>7</v>
+      </c>
+      <c r="V34">
+        <v>6</v>
+      </c>
+      <c r="W34">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R35" t="s">
+        <v>67</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>7</v>
+      </c>
+      <c r="W35">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>5</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R36" t="s">
+        <v>68</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>7</v>
+      </c>
+      <c r="X36">
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <v>5</v>
+      </c>
+      <c r="Z36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R37" t="s">
+        <v>69</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>7</v>
+      </c>
+      <c r="Y37">
+        <v>6</v>
+      </c>
+      <c r="Z37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R38" t="s">
+        <v>70</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>7</v>
+      </c>
+      <c r="Z38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R39" t="s">
+        <v>71</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+      <c r="U39">
+        <v>4</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="U40">
+        <v>4</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F31B76D-C6BF-4EBC-8A6B-9840ED150A42}">
+  <dimension ref="B1:Y40"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25">
+        <v>6</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q35" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>7</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q36" t="s">
+        <v>68</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>7</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>7</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185F5406-4238-49FD-871D-2239719A6906}">
+  <dimension ref="B1:Y40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25">
+        <v>6</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q35" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>7</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q36" t="s">
+        <v>68</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>7</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>7</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96474D0E-5848-465F-AA58-784BF4401878}">
+  <dimension ref="B1:Y40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>7</v>
+      </c>
+      <c r="Y4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>7</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>7</v>
+      </c>
+      <c r="V17">
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>7</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>7</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>7</v>
+      </c>
+      <c r="V27">
+        <v>6</v>
+      </c>
+      <c r="W27">
+        <v>5</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>7</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <v>4</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>7</v>
+      </c>
+      <c r="Y34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q35" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>7</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q36" t="s">
+        <v>68</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>7</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+      <c r="V37">
+        <v>6</v>
+      </c>
+      <c r="W37">
+        <v>5</v>
+      </c>
+      <c r="X37">
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
+      <c r="W38">
+        <v>4</v>
+      </c>
+      <c r="X38">
+        <v>3</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <v>6</v>
+      </c>
+      <c r="U39">
+        <v>5</v>
+      </c>
+      <c r="V39">
+        <v>4</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>7</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>4</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3block_HIGHT_Register.xlsx
+++ b/3block_HIGHT_Register.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Desktop\겨울학술\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7FE3CF-D941-4DD1-9612-8402137474F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B8662-12C7-40B8-845E-E9955E8B33A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="32310" windowHeight="15285" activeTab="5" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
   </bookViews>
   <sheets>
     <sheet name="origin" sheetId="3" r:id="rId1"/>
     <sheet name="LM" sheetId="1" r:id="rId2"/>
     <sheet name="DI" sheetId="4" r:id="rId3"/>
     <sheet name="LMDI" sheetId="2" r:id="rId4"/>
+    <sheet name="LMDIPL" sheetId="5" r:id="rId5"/>
+    <sheet name="Dec" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="80">
   <si>
     <t>t0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +329,26 @@
   </si>
   <si>
     <t>X7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT load1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT load2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT load3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT load4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR비트마스크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,9 +728,9 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>28</v>
       </c>
@@ -743,7 +765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -780,7 +802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -794,7 +816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -814,7 +836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -831,7 +853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -848,12 +870,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -867,7 +889,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -902,7 +924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -937,7 +959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -972,7 +994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1147,7 +1169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1170,7 +1192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1239,7 +1261,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1253,7 +1275,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -1291,7 +1313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -1367,7 +1389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -1405,7 +1427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1443,7 +1465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -1454,7 +1476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -1477,7 +1499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -1488,7 +1510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1513,12 +1535,12 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M31"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>28</v>
       </c>
@@ -1553,7 +1575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1587,7 +1609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1610,7 +1632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1658,12 +1680,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1677,7 +1699,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +1769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +1874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1887,7 +1909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1922,7 +1944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +1979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1980,7 +2002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -2003,7 +2025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -2049,7 +2071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2063,7 +2085,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -2101,7 +2123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -2177,7 +2199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -2215,7 +2237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -2253,7 +2275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -2264,7 +2286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -2287,7 +2309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -2298,7 +2320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2320,341 +2342,340 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488BB076-65DB-4B3A-B9C3-8D51A36FA106}">
-  <dimension ref="B1:Y40"/>
+  <dimension ref="C1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="C1" t="s">
+    <row r="1" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="Z1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>64</v>
       </c>
-      <c r="R2">
-        <v>7</v>
-      </c>
       <c r="S2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
         <v>65</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" t="s">
         <v>66</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>67</v>
       </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>68</v>
       </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
       <c r="S6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>69</v>
       </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
       <c r="S7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
         <v>70</v>
       </c>
-      <c r="R8">
-        <v>5</v>
-      </c>
       <c r="S8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2662,510 +2683,510 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="Q9" t="s">
+      <c r="J9" s="1"/>
+      <c r="R9" t="s">
         <v>71</v>
       </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
       <c r="S9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
         <v>74</v>
       </c>
-      <c r="R10">
-        <v>7</v>
+      <c r="J10" t="s">
+        <v>74</v>
       </c>
       <c r="S10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
         <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" t="s">
         <v>64</v>
       </c>
-      <c r="R12">
-        <v>7</v>
-      </c>
       <c r="S12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" t="s">
         <v>65</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" t="s">
         <v>66</v>
       </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" t="s">
         <v>67</v>
       </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
       <c r="S15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
         <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
         <v>45</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" t="s">
         <v>68</v>
       </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
       <c r="S16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" t="s">
         <v>69</v>
       </c>
-      <c r="R17">
-        <v>4</v>
-      </c>
       <c r="S17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" t="s">
         <v>70</v>
       </c>
-      <c r="R18">
-        <v>5</v>
-      </c>
       <c r="S18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>71</v>
       </c>
-      <c r="R19">
-        <v>6</v>
-      </c>
       <c r="S19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="R20">
-        <v>7</v>
-      </c>
       <c r="S20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3173,40 +3194,38 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="Q22" t="s">
+      <c r="J22" s="1"/>
+      <c r="R22" t="s">
         <v>64</v>
       </c>
-      <c r="R22">
-        <v>7</v>
-      </c>
       <c r="S22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -3226,40 +3245,40 @@
       <c r="I23" t="s">
         <v>32</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
         <v>65</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -3279,40 +3298,40 @@
       <c r="I24" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
         <v>66</v>
       </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
         <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -3332,40 +3351,40 @@
       <c r="I25" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" t="s">
         <v>67</v>
       </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
       <c r="S25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
         <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -3385,40 +3404,40 @@
       <c r="I26" t="s">
         <v>38</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" t="s">
         <v>68</v>
       </c>
-      <c r="R26">
-        <v>3</v>
-      </c>
       <c r="S26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
         <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -3438,153 +3457,155 @@
       <c r="I27" t="s">
         <v>39</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" t="s">
         <v>69</v>
       </c>
-      <c r="R27">
-        <v>4</v>
-      </c>
       <c r="S27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
         <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" t="s">
         <v>70</v>
       </c>
-      <c r="R28">
-        <v>5</v>
-      </c>
       <c r="S28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
         <v>58</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>60</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>71</v>
       </c>
-      <c r="R29">
-        <v>6</v>
-      </c>
       <c r="S29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
       </c>
       <c r="D30" t="s">
         <v>37</v>
       </c>
-      <c r="R30">
-        <v>7</v>
+      <c r="E30" t="s">
+        <v>37</v>
       </c>
       <c r="S30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3592,262 +3613,263 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="Q32" t="s">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="R32" t="s">
         <v>64</v>
       </c>
-      <c r="R32">
-        <v>7</v>
-      </c>
       <c r="S32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="17:25" x14ac:dyDescent="0.4">
-      <c r="Q33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R33" t="s">
         <v>65</v>
       </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
       <c r="S33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="17:25" x14ac:dyDescent="0.4">
-      <c r="Q34" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R34" t="s">
         <v>66</v>
       </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="17:25" x14ac:dyDescent="0.4">
-      <c r="Q35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R35" t="s">
         <v>67</v>
       </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
       <c r="S35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="17:25" x14ac:dyDescent="0.4">
-      <c r="Q36" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R36" t="s">
         <v>68</v>
       </c>
-      <c r="R36">
-        <v>3</v>
-      </c>
       <c r="S36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="17:25" x14ac:dyDescent="0.4">
-      <c r="Q37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R37" t="s">
         <v>69</v>
       </c>
-      <c r="R37">
-        <v>4</v>
-      </c>
       <c r="S37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="17:25" x14ac:dyDescent="0.4">
-      <c r="Q38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R38" t="s">
         <v>70</v>
       </c>
-      <c r="R38">
-        <v>5</v>
-      </c>
       <c r="S38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="17:25" x14ac:dyDescent="0.4">
-      <c r="Q39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="18:26" x14ac:dyDescent="0.3">
+      <c r="R39" t="s">
         <v>71</v>
       </c>
-      <c r="R39">
-        <v>6</v>
-      </c>
       <c r="S39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="17:25" x14ac:dyDescent="0.4">
-      <c r="R40">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="18:26" x14ac:dyDescent="0.3">
       <c r="S40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
         <v>7</v>
       </c>
     </row>
@@ -3862,12 +3884,12 @@
   <dimension ref="B1:Y40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>28</v>
       </c>
@@ -3914,7 +3936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3958,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -3996,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -4040,7 +4062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -4084,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -4125,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -4160,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -4192,7 +4214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4229,7 +4251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -4276,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -4299,7 +4321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -4349,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -4399,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -4449,7 +4471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -4499,7 +4521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -4549,7 +4571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -4599,7 +4621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -4637,7 +4659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -4669,7 +4691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -4698,12 +4720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4740,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -4793,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -4846,7 +4868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -4899,7 +4921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -4952,7 +4974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -5005,7 +5027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -5043,7 +5065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -5087,7 +5109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -5122,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5132,7 +5154,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>64</v>
       </c>
@@ -5161,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="17:25" x14ac:dyDescent="0.4">
+    <row r="33" spans="17:25" x14ac:dyDescent="0.3">
       <c r="Q33" t="s">
         <v>65</v>
       </c>
@@ -5190,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="17:25" x14ac:dyDescent="0.4">
+    <row r="34" spans="17:25" x14ac:dyDescent="0.3">
       <c r="Q34" t="s">
         <v>66</v>
       </c>
@@ -5219,7 +5241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="17:25" x14ac:dyDescent="0.4">
+    <row r="35" spans="17:25" x14ac:dyDescent="0.3">
       <c r="Q35" t="s">
         <v>67</v>
       </c>
@@ -5248,7 +5270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="17:25" x14ac:dyDescent="0.4">
+    <row r="36" spans="17:25" x14ac:dyDescent="0.3">
       <c r="Q36" t="s">
         <v>68</v>
       </c>
@@ -5277,7 +5299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="17:25" x14ac:dyDescent="0.4">
+    <row r="37" spans="17:25" x14ac:dyDescent="0.3">
       <c r="Q37" t="s">
         <v>69</v>
       </c>
@@ -5306,7 +5328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="17:25" x14ac:dyDescent="0.4">
+    <row r="38" spans="17:25" x14ac:dyDescent="0.3">
       <c r="Q38" t="s">
         <v>70</v>
       </c>
@@ -5335,7 +5357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="17:25" x14ac:dyDescent="0.4">
+    <row r="39" spans="17:25" x14ac:dyDescent="0.3">
       <c r="Q39" t="s">
         <v>71</v>
       </c>
@@ -5364,7 +5386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="17:25" x14ac:dyDescent="0.4">
+    <row r="40" spans="17:25" x14ac:dyDescent="0.3">
       <c r="R40">
         <v>6</v>
       </c>
@@ -5388,6 +5410,3183 @@
       </c>
       <c r="Y40">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185F5406-4238-49FD-871D-2239719A6906}">
+  <dimension ref="B1:Y40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25">
+        <v>6</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q35" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>7</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q36" t="s">
+        <v>68</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>7</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>7</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96474D0E-5848-465F-AA58-784BF4401878}">
+  <dimension ref="B1:Y40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>7</v>
+      </c>
+      <c r="Y4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>7</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>7</v>
+      </c>
+      <c r="V17">
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="Q22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>7</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>7</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>7</v>
+      </c>
+      <c r="V27">
+        <v>6</v>
+      </c>
+      <c r="W27">
+        <v>5</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>7</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <v>4</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>7</v>
+      </c>
+      <c r="Y34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q35" t="s">
+        <v>67</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>7</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q36" t="s">
+        <v>68</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>7</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+      <c r="V37">
+        <v>6</v>
+      </c>
+      <c r="W37">
+        <v>5</v>
+      </c>
+      <c r="X37">
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q38" t="s">
+        <v>70</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
+      <c r="W38">
+        <v>4</v>
+      </c>
+      <c r="X38">
+        <v>3</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="Q39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <v>6</v>
+      </c>
+      <c r="U39">
+        <v>5</v>
+      </c>
+      <c r="V39">
+        <v>4</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="17:25" x14ac:dyDescent="0.3">
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>7</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>4</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/3block_HIGHT_Register.xlsx
+++ b/3block_HIGHT_Register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Desktop\겨울학술\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Desktop\겨울학술\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B8662-12C7-40B8-845E-E9955E8B33A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3587A2-8671-4AB0-BCD5-12EEF29E27B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="32310" windowHeight="15285" activeTab="5" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
   </bookViews>
   <sheets>
     <sheet name="origin" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="82">
   <si>
     <t>t0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,12 +351,20 @@
     <t>OR비트마스크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>라운드(F함수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라운드(나머지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,8 +380,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +407,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,12 +437,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,9 +477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +517,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -572,7 +623,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -714,7 +765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,48 +776,48 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -786,7 +837,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -803,7 +854,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
@@ -817,7 +868,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -837,7 +888,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -854,7 +905,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
@@ -871,12 +922,12 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -890,7 +941,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -925,7 +976,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -960,7 +1011,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -995,7 +1046,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
@@ -1030,7 +1081,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
@@ -1065,7 +1116,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
@@ -1100,7 +1151,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
@@ -1135,7 +1186,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
@@ -1170,7 +1221,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
@@ -1193,7 +1244,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
@@ -1216,7 +1267,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
@@ -1239,7 +1290,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
@@ -1262,7 +1313,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1276,7 +1327,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -1314,7 +1365,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
@@ -1352,7 +1403,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
@@ -1390,7 +1441,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
@@ -1428,7 +1479,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -1466,7 +1517,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -1477,7 +1528,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
@@ -1500,7 +1551,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
@@ -1511,7 +1562,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1534,49 +1585,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF72E94-D5D6-42D2-AF03-F029C6C9F8D3}">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -1596,7 +1647,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -1610,7 +1661,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
@@ -1633,7 +1684,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -1653,7 +1704,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -1670,7 +1721,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
@@ -1681,12 +1732,12 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1700,7 +1751,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -1735,7 +1786,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -1770,7 +1821,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -1805,7 +1856,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
@@ -1840,7 +1891,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
@@ -1875,7 +1926,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
@@ -1910,7 +1961,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
@@ -1945,7 +1996,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
@@ -1980,7 +2031,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
@@ -2003,7 +2054,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
@@ -2026,7 +2077,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
@@ -2049,7 +2100,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
@@ -2072,7 +2123,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2086,7 +2137,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -2124,7 +2175,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
@@ -2162,7 +2213,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
@@ -2200,7 +2251,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
@@ -2238,7 +2289,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -2276,7 +2327,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -2287,7 +2338,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
@@ -2310,7 +2361,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
@@ -2321,7 +2372,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2345,31 +2396,31 @@
   <dimension ref="C1:Z40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C23" sqref="C23:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="S1" t="s">
@@ -2398,7 +2449,7 @@
       </c>
     </row>
     <row r="2" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -2442,7 +2493,7 @@
       </c>
     </row>
     <row r="3" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
@@ -2480,7 +2531,7 @@
       </c>
     </row>
     <row r="4" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
@@ -2521,7 +2572,7 @@
       </c>
     </row>
     <row r="5" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
@@ -2565,7 +2616,7 @@
       </c>
     </row>
     <row r="6" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
@@ -2606,7 +2657,7 @@
       </c>
     </row>
     <row r="7" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
@@ -2644,7 +2695,7 @@
       </c>
     </row>
     <row r="8" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="R8" t="s">
@@ -2676,7 +2727,7 @@
       </c>
     </row>
     <row r="9" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2713,7 +2764,7 @@
       </c>
     </row>
     <row r="10" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
@@ -2760,7 +2811,7 @@
       </c>
     </row>
     <row r="11" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
@@ -2783,7 +2834,7 @@
       </c>
     </row>
     <row r="12" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
@@ -2833,7 +2884,7 @@
       </c>
     </row>
     <row r="13" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
@@ -2883,7 +2934,7 @@
       </c>
     </row>
     <row r="14" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
@@ -2933,7 +2984,7 @@
       </c>
     </row>
     <row r="15" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
@@ -2983,7 +3034,7 @@
       </c>
     </row>
     <row r="16" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
@@ -3033,7 +3084,7 @@
       </c>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
@@ -3083,7 +3134,7 @@
       </c>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G18" t="s">
@@ -3121,7 +3172,7 @@
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="R19" t="s">
@@ -3153,7 +3204,7 @@
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="S20">
@@ -3182,12 +3233,12 @@
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3224,7 +3275,7 @@
       </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
@@ -3277,7 +3328,7 @@
       </c>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
@@ -3330,7 +3381,7 @@
       </c>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
@@ -3383,7 +3434,7 @@
       </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D26" t="s">
@@ -3436,7 +3487,7 @@
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D27" t="s">
@@ -3489,7 +3540,7 @@
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D28" t="s">
@@ -3527,7 +3578,7 @@
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D29" t="s">
@@ -3571,7 +3622,7 @@
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D30" t="s">
@@ -3606,7 +3657,7 @@
       </c>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C31" s="1"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3883,32 +3934,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F31B76D-C6BF-4EBC-8A6B-9840ED150A42}">
   <dimension ref="B1:Y40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R1" t="s">
@@ -3937,7 +3988,7 @@
       </c>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -3981,7 +4032,7 @@
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -4019,7 +4070,7 @@
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
@@ -4063,7 +4114,7 @@
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -4072,9 +4123,6 @@
       <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
       <c r="I5" t="s">
         <v>52</v>
       </c>
@@ -4107,7 +4155,7 @@
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -4116,9 +4164,6 @@
       <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
       <c r="Q6" t="s">
         <v>68</v>
       </c>
@@ -4148,7 +4193,7 @@
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
@@ -4183,7 +4228,7 @@
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Q8" t="s">
@@ -4215,7 +4260,7 @@
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4252,7 +4297,7 @@
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -4299,7 +4344,7 @@
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -4322,7 +4367,7 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -4372,7 +4417,7 @@
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
@@ -4422,7 +4467,7 @@
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
@@ -4472,7 +4517,7 @@
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
@@ -4522,7 +4567,7 @@
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
@@ -4572,7 +4617,7 @@
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
@@ -4622,7 +4667,7 @@
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
@@ -4660,7 +4705,7 @@
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="Q19" t="s">
@@ -4692,7 +4737,7 @@
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="R20">
@@ -4721,12 +4766,12 @@
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4763,7 +4808,7 @@
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -4816,7 +4861,7 @@
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
@@ -4869,7 +4914,7 @@
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
@@ -4922,7 +4967,7 @@
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
@@ -4975,7 +5020,7 @@
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -5028,7 +5073,7 @@
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -5066,7 +5111,7 @@
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
@@ -5110,7 +5155,7 @@
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
@@ -5145,7 +5190,7 @@
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -5422,32 +5467,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185F5406-4238-49FD-871D-2239719A6906}">
   <dimension ref="B1:Y40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R1" t="s">
@@ -5476,7 +5521,7 @@
       </c>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
@@ -5523,7 +5568,7 @@
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -5570,7 +5615,7 @@
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -5620,7 +5665,7 @@
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -5632,9 +5677,6 @@
       <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
       <c r="H5" t="s">
         <v>50</v>
       </c>
@@ -5670,7 +5712,7 @@
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -5682,9 +5724,6 @@
       <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
       <c r="Q6" t="s">
         <v>68</v>
       </c>
@@ -5714,7 +5753,7 @@
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
@@ -5752,7 +5791,7 @@
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Q8" t="s">
@@ -5784,7 +5823,7 @@
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5821,7 +5860,7 @@
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -5868,7 +5907,7 @@
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -5891,7 +5930,7 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -5941,7 +5980,7 @@
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
@@ -5991,7 +6030,7 @@
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
@@ -6041,7 +6080,7 @@
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
@@ -6091,7 +6130,7 @@
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
@@ -6141,7 +6180,7 @@
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
@@ -6191,7 +6230,7 @@
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
@@ -6232,7 +6271,7 @@
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
@@ -6270,7 +6309,7 @@
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
@@ -6302,7 +6341,7 @@
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G21" t="s">
@@ -6310,7 +6349,7 @@
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6347,7 +6386,7 @@
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -6400,7 +6439,7 @@
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
@@ -6453,7 +6492,7 @@
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
@@ -6506,7 +6545,7 @@
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
@@ -6559,7 +6598,7 @@
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -6612,7 +6651,7 @@
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -6653,7 +6692,7 @@
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
@@ -6694,7 +6733,7 @@
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
@@ -7006,32 +7045,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96474D0E-5848-465F-AA58-784BF4401878}">
   <dimension ref="B1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA39" sqref="AA39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="R1" t="s">
@@ -7060,7 +7099,7 @@
       </c>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
@@ -7107,7 +7146,7 @@
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -7154,7 +7193,7 @@
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -7204,7 +7243,7 @@
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -7254,7 +7293,7 @@
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -7298,7 +7337,7 @@
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
@@ -7336,7 +7375,7 @@
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Q8" t="s">
@@ -7368,7 +7407,7 @@
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -7405,7 +7444,7 @@
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -7452,7 +7491,7 @@
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -7475,7 +7514,7 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -7525,7 +7564,7 @@
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
@@ -7575,7 +7614,7 @@
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
@@ -7625,7 +7664,7 @@
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
@@ -7675,7 +7714,7 @@
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
@@ -7725,7 +7764,7 @@
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
@@ -7775,7 +7814,7 @@
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
@@ -7816,7 +7855,7 @@
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
@@ -7854,7 +7893,7 @@
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
@@ -7886,7 +7925,7 @@
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G21" t="s">
@@ -7894,7 +7933,7 @@
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -7931,7 +7970,7 @@
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -7984,7 +8023,7 @@
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
@@ -8037,7 +8076,7 @@
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
@@ -8090,7 +8129,7 @@
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
@@ -8143,7 +8182,7 @@
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -8196,7 +8235,7 @@
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -8237,7 +8276,7 @@
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
@@ -8278,7 +8317,7 @@
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
@@ -8322,7 +8361,7 @@
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
